--- a/Precigen.xlsx
+++ b/Precigen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCKJAM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32C8EC9-C6E3-470A-B175-386B07546452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D761E-0765-4781-8B25-6CE80BA10EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -810,7 +810,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,32 +875,32 @@
         <v>422</v>
       </c>
       <c r="D3" s="2">
-        <f>1030</f>
-        <v>1030</v>
+        <f>O7</f>
+        <v>1932</v>
       </c>
       <c r="E3" s="2">
-        <f>1932</f>
+        <f>D3</f>
         <v>1932</v>
       </c>
       <c r="F3" s="2">
-        <f>E3 * 1.04</f>
-        <v>2009.28</v>
+        <f t="shared" ref="F3:J3" si="0">E3</f>
+        <v>1932</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="F3:J3" si="0">F3 * 1.04</f>
-        <v>2089.6512000000002</v>
+        <f t="shared" si="0"/>
+        <v>1932</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="0"/>
-        <v>2173.2372480000004</v>
+        <v>1932</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>2260.1667379200003</v>
+        <v>1932</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>2350.5734074368002</v>
+        <v>1932</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>38</v>
@@ -986,36 +986,36 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <f>SUM(C3:C5)</f>
+        <f t="shared" ref="C6:J6" si="1">SUM(C3:C5)</f>
         <v>3925</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(D3:D5)</f>
-        <v>4533</v>
+        <f t="shared" si="1"/>
+        <v>5435</v>
       </c>
       <c r="E6" s="2">
-        <f>SUM(E3:E5)</f>
+        <f t="shared" si="1"/>
         <v>5435</v>
       </c>
       <c r="F6" s="2">
-        <f>SUM(F3:F5)</f>
-        <v>5512.28</v>
+        <f t="shared" si="1"/>
+        <v>5435</v>
       </c>
       <c r="G6" s="2">
-        <f>SUM(G3:G5)</f>
-        <v>5592.6512000000002</v>
+        <f t="shared" si="1"/>
+        <v>5435</v>
       </c>
       <c r="H6" s="2">
-        <f>SUM(H3:H5)</f>
-        <v>5676.2372480000004</v>
+        <f t="shared" si="1"/>
+        <v>5435</v>
       </c>
       <c r="I6" s="2">
-        <f>SUM(I3:I5)</f>
-        <v>5763.1667379200007</v>
+        <f t="shared" si="1"/>
+        <v>5435</v>
       </c>
       <c r="J6" s="2">
-        <f>SUM(J3:J5)</f>
-        <v>5853.5734074368002</v>
+        <f t="shared" si="1"/>
+        <v>5435</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>41</v>
@@ -1037,27 +1037,27 @@
         <v>4352.34</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:J7" si="1">D7*1.02</f>
+        <f t="shared" ref="E7:J7" si="2">D7*1.02</f>
         <v>4439.3868000000002</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4528.1745360000004</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4618.7380267200006</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4711.1127872544002</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4805.335042999488</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4901.4417438594783</v>
       </c>
       <c r="N7" s="4" t="s">
@@ -1080,27 +1080,27 @@
         <v>56784.9</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:J8" si="2">D8*1.07</f>
+        <f t="shared" ref="E8:J8" si="3">D8*1.07</f>
         <v>60759.843000000008</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65013.03201000001</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69563.94425070002</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74433.420348249027</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79643.759772626465</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85218.822956710326</v>
       </c>
       <c r="O8" s="2"/>
@@ -1117,27 +1117,27 @@
         <v>42944.72</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:J9" si="3">D9*1.04</f>
+        <f t="shared" ref="E9:J9" si="4">D9*1.04</f>
         <v>44662.508800000003</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46449.009152000006</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48306.969518080004</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50239.248298803206</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52248.818230755336</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54338.770959985552</v>
       </c>
     </row>
@@ -1182,27 +1182,27 @@
         <v>416</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:J11" si="4">400*1.04</f>
+        <f t="shared" ref="E11:J11" si="5">400*1.04</f>
         <v>416</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>416</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>416</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>416</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>416</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>416</v>
       </c>
     </row>
@@ -1211,35 +1211,35 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <f>SUM(C7:C11)</f>
+        <f t="shared" ref="C12:J12" si="6">SUM(C7:C11)</f>
         <v>138954</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(D7:D11)</f>
+        <f t="shared" si="6"/>
         <v>111906.96</v>
       </c>
       <c r="E12" s="2">
-        <f>SUM(E7:E11)</f>
+        <f t="shared" si="6"/>
         <v>117686.73860000001</v>
       </c>
       <c r="F12" s="2">
-        <f>SUM(F7:F11)</f>
+        <f t="shared" si="6"/>
         <v>123815.21569800001</v>
       </c>
       <c r="G12" s="2">
-        <f>SUM(G7:G11)</f>
+        <f t="shared" si="6"/>
         <v>130314.65179550003</v>
       </c>
       <c r="H12" s="2">
-        <f>SUM(H7:H11)</f>
+        <f t="shared" si="6"/>
         <v>137208.78143430664</v>
       </c>
       <c r="I12" s="2">
-        <f>SUM(I7:I11)</f>
+        <f t="shared" si="6"/>
         <v>144522.91304638129</v>
       </c>
       <c r="J12" s="2">
-        <f>SUM(J7:J11)</f>
+        <f t="shared" si="6"/>
         <v>152284.03566055535</v>
       </c>
     </row>
@@ -1248,36 +1248,36 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <f>C6-C12</f>
+        <f t="shared" ref="C13:J13" si="7">C6-C12</f>
         <v>-135029</v>
       </c>
       <c r="D13" s="2">
-        <f>D6-D12</f>
-        <v>-107373.96</v>
+        <f t="shared" si="7"/>
+        <v>-106471.96</v>
       </c>
       <c r="E13" s="2">
-        <f>E6-E12</f>
+        <f t="shared" si="7"/>
         <v>-112251.73860000001</v>
       </c>
       <c r="F13" s="2">
-        <f>F6-F12</f>
-        <v>-118302.93569800002</v>
+        <f t="shared" si="7"/>
+        <v>-118380.21569800001</v>
       </c>
       <c r="G13" s="2">
-        <f>G6-G12</f>
-        <v>-124722.00059550002</v>
+        <f t="shared" si="7"/>
+        <v>-124879.65179550003</v>
       </c>
       <c r="H13" s="2">
-        <f>H6-H12</f>
-        <v>-131532.54418630665</v>
+        <f t="shared" si="7"/>
+        <v>-131773.78143430664</v>
       </c>
       <c r="I13" s="2">
-        <f>I6-I12</f>
-        <v>-138759.7463084613</v>
+        <f t="shared" si="7"/>
+        <v>-139087.91304638129</v>
       </c>
       <c r="J13" s="2">
-        <f>J6-J12</f>
-        <v>-146430.46225311855</v>
+        <f t="shared" si="7"/>
+        <v>-146849.03566055535</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1311,5 +1311,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Precigen.xlsx
+++ b/Precigen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCKJAM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D761E-0765-4781-8B25-6CE80BA10EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6C116-A149-4E62-AC3A-8B3D7F1AB7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Ticker</t>
   </si>
@@ -190,13 +190,16 @@
   </si>
   <si>
     <t>PAPZI</t>
+  </si>
+  <si>
+    <t>In Thousands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +235,21 @@
       <name val="Aptos Serif"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Serif"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Serif"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -266,6 +284,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,22 +682,22 @@
   <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1"/>
+    <col min="13" max="13" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -703,7 +725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -714,7 +736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -732,7 +754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,7 +780,7 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,7 +803,7 @@
         <v>12420000</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -790,12 +812,12 @@
         <v>1192255012.8</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N22"/>
     </row>
   </sheetData>
@@ -810,20 +832,22 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="10" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
@@ -834,40 +858,39 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="1">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C2" s="9">
         <v>2024</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O2" s="2">
-        <f>27000/1000</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
@@ -875,42 +898,41 @@
         <v>422</v>
       </c>
       <c r="D3" s="2">
-        <f>O7</f>
-        <v>1932</v>
+        <f>O8</f>
+        <v>248409.2</v>
       </c>
       <c r="E3" s="2">
         <f>D3</f>
-        <v>1932</v>
+        <v>248409.2</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:J3" si="0">E3</f>
-        <v>1932</v>
+        <v>248409.2</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="0"/>
-        <v>1932</v>
+        <v>248409.2</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="0"/>
-        <v>1932</v>
+        <v>248409.2</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>1932</v>
+        <v>248409.2</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>1932</v>
+        <v>248409.2</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O3" s="2">
-        <f>460000/1000</f>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -942,11 +964,11 @@
         <v>40</v>
       </c>
       <c r="O4" s="2">
-        <f>O3*O2</f>
-        <v>12420</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <f>O2*O3</f>
+        <v>12420000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -978,10 +1000,10 @@
         <v>39</v>
       </c>
       <c r="O5" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -991,31 +1013,31 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>5435</v>
+        <v>251912.2</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>5435</v>
+        <v>251912.2</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>5435</v>
+        <v>251912.2</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>5435</v>
+        <v>251912.2</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="1"/>
-        <v>5435</v>
+        <v>251912.2</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="1"/>
-        <v>5435</v>
+        <v>251912.2</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="1"/>
-        <v>5435</v>
+        <v>251912.2</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>41</v>
@@ -1025,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,10 +1087,10 @@
       </c>
       <c r="O7" s="8">
         <f>((O6+O2) *O3) *O5</f>
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>248409200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1103,9 +1125,15 @@
         <f t="shared" si="3"/>
         <v>85218.822956710326</v>
       </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="8">
+        <f>O7/1000</f>
+        <v>248409.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1141,7 +1169,7 @@
         <v>54338.770959985552</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1198,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1206,7 +1234,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1243,7 +1271,7 @@
         <v>152284.03566055535</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1253,54 +1281,54 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="7"/>
-        <v>-106471.96</v>
+        <v>140005.24</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="7"/>
-        <v>-112251.73860000001</v>
+        <v>134225.4614</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="7"/>
-        <v>-118380.21569800001</v>
+        <v>128096.984302</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="7"/>
-        <v>-124879.65179550003</v>
+        <v>121597.54820449998</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="7"/>
-        <v>-131773.78143430664</v>
+        <v>114703.41856569337</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="7"/>
-        <v>-139087.91304638129</v>
+        <v>107389.28695361872</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="7"/>
-        <v>-146849.03566055535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99628.164339444658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
